--- a/Dokumentation + Diagramme etc/Soll-Ist.xlsx
+++ b/Dokumentation + Diagramme etc/Soll-Ist.xlsx
@@ -14,7 +14,7 @@
     <sheet name="Tabelle5" sheetId="5" r:id="rId5"/>
     <sheet name="Tabelle6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Soll-Ist-Vergleich</t>
   </si>
@@ -35,7 +35,79 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Beschreibung</t>
+    <t>Teilnehmer Auswahlliste</t>
+  </si>
+  <si>
+    <t>Einladung per PDF exportiert und versendet</t>
+  </si>
+  <si>
+    <t>Bearbeitungsdatum</t>
+  </si>
+  <si>
+    <t>Eingabe des Konferenzdatums/</t>
+  </si>
+  <si>
+    <t>Sonderhinweis an Protokollanten und Konferenzleiter</t>
+  </si>
+  <si>
+    <t>An-/abwesende Lehrer werden dargestellt</t>
+  </si>
+  <si>
+    <t>Liste mit den Beschlüssen einer Konferenz und</t>
+  </si>
+  <si>
+    <t>deren Ergebnisse der Abstimmung</t>
+  </si>
+  <si>
+    <t>Liste als PDF exportierbar</t>
+  </si>
+  <si>
+    <t>Liste nach Schuljahren sortierbar</t>
+  </si>
+  <si>
+    <t>Zugang erfolgt über standard Lehrerschulkonten</t>
+  </si>
+  <si>
+    <t>per LDAP</t>
+  </si>
+  <si>
+    <t>Spätere bearbeitung möglich</t>
+  </si>
+  <si>
+    <t>Versionierung</t>
+  </si>
+  <si>
+    <t>Administrativer Zugnang</t>
+  </si>
+  <si>
+    <t>Anwendung für unterschiedliche Konferenzen anwendabar</t>
+  </si>
+  <si>
+    <t>Möglichkeit zum Upload von Dateien</t>
+  </si>
+  <si>
+    <t>GSO Design</t>
+  </si>
+  <si>
+    <t>Zugriff von Überall</t>
+  </si>
+  <si>
+    <t>Anwendung lauffähig auf Windows, Mac, Linux</t>
+  </si>
+  <si>
+    <t>Bemerkungen</t>
+  </si>
+  <si>
+    <t>Lehrer</t>
+  </si>
+  <si>
+    <t>nach Bereichen</t>
+  </si>
+  <si>
+    <t>versand per Email, mit Information über Ort, Protokollant, Thema</t>
+  </si>
+  <si>
+    <t>WebBasierte Anwendung</t>
   </si>
 </sst>
 </file>
@@ -76,7 +148,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -253,6 +325,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -262,6 +364,65 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -271,30 +432,51 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -302,7 +484,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -318,20 +500,34 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -341,23 +537,49 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -632,7 +854,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -640,93 +862,200 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.4"/>
   <cols>
-    <col min="1" max="1" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.3984375" customWidth="1"/>
     <col min="3" max="3" width="9.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="12" thickBot="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" ht="12" thickBot="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:4" ht="12" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="13"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="18"/>
+      <c r="A4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="17"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="14"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="19"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="1:4" ht="14.4">
-      <c r="A6" s="7"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="20"/>
+      <c r="A6" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="12"/>
     </row>
     <row r="7" spans="1:4" ht="14.4">
-      <c r="A7" s="7"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="20"/>
+      <c r="A7" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="31"/>
+      <c r="C7" s="12"/>
     </row>
     <row r="8" spans="1:4" ht="14.4">
-      <c r="A8" s="7"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="20"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="14"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="21"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="14"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="22"/>
-    </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="23"/>
+      <c r="A8" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="13"/>
+    </row>
+    <row r="9" spans="1:4" ht="11.4" customHeight="1">
+      <c r="A9" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="29"/>
+      <c r="C9" s="33"/>
+    </row>
+    <row r="10" spans="1:4" ht="11.4" customHeight="1">
+      <c r="A10" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="34"/>
+    </row>
+    <row r="11" spans="1:4" ht="11.4" customHeight="1">
+      <c r="A11" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="31"/>
+      <c r="C11" s="33"/>
+    </row>
+    <row r="12" spans="1:4" ht="11.4" customHeight="1">
+      <c r="A12" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="35"/>
+    </row>
+    <row r="13" spans="1:4" ht="11.4" customHeight="1">
+      <c r="A13" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="39"/>
+      <c r="C13" s="33"/>
+    </row>
+    <row r="14" spans="1:4" ht="14.4">
+      <c r="A14" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="40"/>
+      <c r="C14" s="13"/>
+    </row>
+    <row r="15" spans="1:4" ht="14.4">
+      <c r="A15" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="1:4" ht="14.4">
+      <c r="A16" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="1:3" ht="14.4">
+      <c r="A17" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="11"/>
+    </row>
+    <row r="18" spans="1:3" ht="14.4">
+      <c r="A18" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="11"/>
+    </row>
+    <row r="19" spans="1:3" ht="14.4">
+      <c r="A19" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="11"/>
+    </row>
+    <row r="20" spans="1:3" ht="14.4">
+      <c r="A20" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="11"/>
+    </row>
+    <row r="21" spans="1:3" ht="14.4">
+      <c r="A21" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="11"/>
+    </row>
+    <row r="22" spans="1:3" ht="14.4">
+      <c r="A22" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="11"/>
+    </row>
+    <row r="23" spans="1:3" ht="15" customHeight="1" thickBot="1">
+      <c r="A23" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="3">
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Dokumentation + Diagramme etc/Soll-Ist.xlsx
+++ b/Dokumentation + Diagramme etc/Soll-Ist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>Soll-Ist-Vergleich</t>
   </si>
@@ -108,13 +108,19 @@
   </si>
   <si>
     <t>WebBasierte Anwendung</t>
+  </si>
+  <si>
+    <t>Erfüllt</t>
+  </si>
+  <si>
+    <t>nicht erfüllt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -123,13 +129,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,11 +157,16 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -315,19 +333,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -340,41 +345,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -480,11 +459,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -500,90 +480,76 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
+  <cellStyles count="3">
+    <cellStyle name="Gut" xfId="1" builtinId="26"/>
+    <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -854,7 +820,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -865,7 +831,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.4"/>
@@ -877,11 +843,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="12" thickBot="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="32"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" ht="12" thickBot="1">
@@ -901,158 +867,195 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="28" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="17"/>
+      <c r="C4" s="34" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="16"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="18"/>
-    </row>
-    <row r="6" spans="1:4" ht="14.4">
-      <c r="A6" s="28" t="s">
+      <c r="C5" s="35"/>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1">
+      <c r="A6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="12"/>
-    </row>
-    <row r="7" spans="1:4" ht="14.4">
-      <c r="A7" s="41" t="s">
+      <c r="C6" s="33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="12"/>
-    </row>
-    <row r="8" spans="1:4" ht="14.4">
-      <c r="A8" s="41" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="13"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="35"/>
     </row>
     <row r="9" spans="1:4" ht="11.4" customHeight="1">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="33"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="33" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="11.4" customHeight="1">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="34"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="33" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="11.4" customHeight="1">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="33"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="33" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="11.4" customHeight="1">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="35"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="33" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="11.4" customHeight="1">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="33"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="33" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="14.4">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="13"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="33" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="14.4">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="11"/>
+      <c r="C15" s="36" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="14.4">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="11"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="33" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="14.4">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="11"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="33" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="14.4">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="11"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="33" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="14.4">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="11"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="33" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="14.4">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="11"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="33" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="14.4">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="11"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="33" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="14.4">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="11"/>
+      <c r="C22" s="33" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" thickBot="1">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="14"/>
+      <c r="C23" s="33" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C7:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
